--- a/biology/Zoologie/Cheliferoidea/Cheliferoidea.xlsx
+++ b/biology/Zoologie/Cheliferoidea/Cheliferoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cheliferoidea sont une super-famille de pseudoscorpions.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette super-famille se rencontrent en Amérique, en Afrique, en Asie, en Europe et en Océanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette super-famille se rencontrent en Amérique, en Afrique, en Asie, en Europe et en Océanie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Pseudoscorpions of the World (version 3.0)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Pseudoscorpions of the World (version 3.0) :
 Atemnidae Kishida, 1929
 Cheliferidae Risso, 1826
 Chernetidae Menge, 1855
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Risso, 1826 : Animaux articulés: description de quelques Myriapodes, Scorpionides, Arachnides et Acarides, habitant les Alpes Maritimes. Histoire naturelle des principales productions de l'Europe méridionale et principalement de celles des environs de Nice et des Alpes Maritimes, Levrault, Paris, p. 147-186.</t>
         </is>
